--- a/CollegeCalculator/Colleges.xlsx
+++ b/CollegeCalculator/Colleges.xlsx
@@ -434,7 +434,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3719372458539626</v>
+        <v>0.9816078898292088</v>
       </c>
       <c r="G2" t="n">
         <v>0.4</v>
@@ -462,7 +462,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3051210871649344</v>
+        <v>0.3093259448199278</v>
       </c>
       <c r="G3" t="n">
         <v>0.4</v>
@@ -490,7 +490,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5496586720801736</v>
+        <v>0.528011429751901</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
@@ -518,7 +518,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2038211866759204</v>
+        <v>0.2211431802606283</v>
       </c>
       <c r="G5" t="n">
         <v>0.4</v>
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9560788436221284</v>
+        <v>0.2025396008973027</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -574,7 +574,7 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4315214011952644</v>
+        <v>0.3353222317810357</v>
       </c>
       <c r="G7" t="n">
         <v>0.4</v>
@@ -602,7 +602,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5459010644997834</v>
+        <v>0.480881821685384</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -630,7 +630,7 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2434439633367786</v>
+        <v>0.2456892014419062</v>
       </c>
       <c r="G9" t="n">
         <v>0.4</v>
@@ -658,7 +658,7 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2169003406940172</v>
+        <v>0.6399064000863915</v>
       </c>
       <c r="G10" t="n">
         <v>0.4</v>
@@ -686,7 +686,7 @@
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2153690716396996</v>
+        <v>0.3897293990344669</v>
       </c>
       <c r="G11" t="n">
         <v>0.4</v>
@@ -714,7 +714,7 @@
         <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4331583276262417</v>
+        <v>0.4177155948873165</v>
       </c>
       <c r="G12" t="n">
         <v>0.4</v>
@@ -742,7 +742,7 @@
         <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3134170039045866</v>
+        <v>0.3291603309168202</v>
       </c>
       <c r="G13" t="n">
         <v>0.4</v>
@@ -770,7 +770,7 @@
         <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2441967251770852</v>
+        <v>0.2592286777889876</v>
       </c>
       <c r="G14" t="n">
         <v>0.4</v>
@@ -798,7 +798,7 @@
         <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3938136972382493</v>
+        <v>0.2509383021706575</v>
       </c>
       <c r="G15" t="n">
         <v>0.4</v>
@@ -826,7 +826,7 @@
         <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2694258064129177</v>
+        <v>0.2636604920511952</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -854,7 +854,7 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8472451947293224</v>
+        <v>0.7188558658383181</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
@@ -882,7 +882,7 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5323244651821591</v>
+        <v>0.2305833645066783</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>

--- a/CollegeCalculator/Colleges.xlsx
+++ b/CollegeCalculator/Colleges.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -434,7 +434,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9816078898292088</v>
+        <v>0.2059047209292661</v>
       </c>
       <c r="G2" t="n">
         <v>0.4</v>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
         <v>0.127</v>
@@ -462,7 +462,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3093259448199278</v>
+        <v>0.3817024682174396</v>
       </c>
       <c r="G3" t="n">
         <v>0.4</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="C4" t="n">
         <v>0.615</v>
@@ -490,7 +490,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.528011429751901</v>
+        <v>0.4507110840165937</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
@@ -518,7 +518,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2211431802606283</v>
+        <v>0.2942274683537416</v>
       </c>
       <c r="G5" t="n">
         <v>0.4</v>
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2025396008973027</v>
+        <v>0.2559303802174517</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -574,7 +574,7 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3353222317810357</v>
+        <v>0.9767812006113296</v>
       </c>
       <c r="G7" t="n">
         <v>0.4</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>0.234</v>
@@ -602,7 +602,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.480881821685384</v>
+        <v>0.6214916978206857</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="C9" t="n">
         <v>0.464</v>
@@ -630,7 +630,7 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2456892014419062</v>
+        <v>0.2833190775866114</v>
       </c>
       <c r="G9" t="n">
         <v>0.4</v>
@@ -658,7 +658,7 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6399064000863915</v>
+        <v>0.2008440690322617</v>
       </c>
       <c r="G10" t="n">
         <v>0.4</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="C11" t="n">
         <v>0.222</v>
@@ -686,7 +686,7 @@
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3897293990344669</v>
+        <v>0.7306442296330274</v>
       </c>
       <c r="G11" t="n">
         <v>0.4</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="C12" t="n">
         <v>0.171</v>
@@ -714,7 +714,7 @@
         <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4177155948873165</v>
+        <v>0.2046139980150824</v>
       </c>
       <c r="G12" t="n">
         <v>0.4</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="C13" t="n">
         <v>0.34</v>
@@ -742,7 +742,7 @@
         <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3291603309168202</v>
+        <v>0.2167851034959944</v>
       </c>
       <c r="G13" t="n">
         <v>0.4</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="C14" t="n">
         <v>0.161</v>
@@ -770,7 +770,7 @@
         <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2592286777889876</v>
+        <v>0.9011475339704739</v>
       </c>
       <c r="G14" t="n">
         <v>0.4</v>
@@ -798,7 +798,7 @@
         <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2509383021706575</v>
+        <v>0.2628596823467271</v>
       </c>
       <c r="G15" t="n">
         <v>0.4</v>
@@ -826,7 +826,7 @@
         <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2636604920511952</v>
+        <v>0.957340732065098</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -854,7 +854,7 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7188558658383181</v>
+        <v>0.4619893556638892</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
@@ -882,7 +882,7 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2305833645066783</v>
+        <v>0.6646813488421417</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>

--- a/CollegeCalculator/Colleges.xlsx
+++ b/CollegeCalculator/Colleges.xlsx
@@ -434,7 +434,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2059047209292661</v>
+        <v>0.9693786026729364</v>
       </c>
       <c r="G2" t="n">
         <v>0.4</v>
@@ -462,7 +462,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3817024682174396</v>
+        <v>0.2799195610483104</v>
       </c>
       <c r="G3" t="n">
         <v>0.4</v>
@@ -490,7 +490,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4507110840165937</v>
+        <v>0.4426171038010963</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
@@ -518,7 +518,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2942274683537416</v>
+        <v>0.3656553596623408</v>
       </c>
       <c r="G5" t="n">
         <v>0.4</v>
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2559303802174517</v>
+        <v>0.5256659928218814</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -574,7 +574,7 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9767812006113296</v>
+        <v>0.2917540639071769</v>
       </c>
       <c r="G7" t="n">
         <v>0.4</v>
@@ -602,7 +602,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6214916978206857</v>
+        <v>0.9965432629534082</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -630,7 +630,7 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2833190775866114</v>
+        <v>0.350465472951615</v>
       </c>
       <c r="G9" t="n">
         <v>0.4</v>
@@ -658,7 +658,7 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2008440690322617</v>
+        <v>0.2040376009451378</v>
       </c>
       <c r="G10" t="n">
         <v>0.4</v>
@@ -686,7 +686,7 @@
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7306442296330274</v>
+        <v>0.4590742993938025</v>
       </c>
       <c r="G11" t="n">
         <v>0.4</v>
@@ -714,7 +714,7 @@
         <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2046139980150824</v>
+        <v>0.5334600001637005</v>
       </c>
       <c r="G12" t="n">
         <v>0.4</v>
@@ -742,7 +742,7 @@
         <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2167851034959944</v>
+        <v>0.2518858811577006</v>
       </c>
       <c r="G13" t="n">
         <v>0.4</v>
@@ -770,7 +770,7 @@
         <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9011475339704739</v>
+        <v>0.3960054044151488</v>
       </c>
       <c r="G14" t="n">
         <v>0.4</v>
@@ -798,7 +798,7 @@
         <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2628596823467271</v>
+        <v>0.7531800643086765</v>
       </c>
       <c r="G15" t="n">
         <v>0.4</v>
@@ -826,7 +826,7 @@
         <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.957340732065098</v>
+        <v>0.3675091768917822</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -854,7 +854,7 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4619893556638892</v>
+        <v>0.4557358063725562</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
@@ -882,7 +882,7 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6646813488421417</v>
+        <v>0.4281721922001981</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>

--- a/CollegeCalculator/Colleges.xlsx
+++ b/CollegeCalculator/Colleges.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -381,7 +381,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>GPA + SAT (45%)</t>
+          <t>GPA + SAT (40%)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -401,7 +401,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Pure Luck (5%)</t>
+          <t>Pure Luck (10%)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -434,7 +434,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9693786026729364</v>
+        <v>0.8812862279980086</v>
       </c>
       <c r="G2" t="n">
         <v>0.4</v>
@@ -462,7 +462,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2799195610483104</v>
+        <v>0.4743370707846513</v>
       </c>
       <c r="G3" t="n">
         <v>0.4</v>
@@ -490,7 +490,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4426171038010963</v>
+        <v>0.4517701776861537</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
@@ -518,7 +518,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3656553596623408</v>
+        <v>0.2321022266257649</v>
       </c>
       <c r="G5" t="n">
         <v>0.4</v>
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5256659928218814</v>
+        <v>0.4344339274317854</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -574,7 +574,7 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2917540639071769</v>
+        <v>0.7228114050918752</v>
       </c>
       <c r="G7" t="n">
         <v>0.4</v>
@@ -602,7 +602,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9965432629534082</v>
+        <v>0.9334766371160107</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -630,7 +630,7 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.350465472951615</v>
+        <v>0.2255057075658554</v>
       </c>
       <c r="G9" t="n">
         <v>0.4</v>
@@ -658,7 +658,7 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2040376009451378</v>
+        <v>0.2024938617963423</v>
       </c>
       <c r="G10" t="n">
         <v>0.4</v>
@@ -677,7 +677,7 @@
         <v>0.58</v>
       </c>
       <c r="C11" t="n">
-        <v>0.222</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
         <v>0.2</v>
@@ -686,7 +686,7 @@
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4590742993938025</v>
+        <v>0.419356999035029</v>
       </c>
       <c r="G11" t="n">
         <v>0.4</v>
@@ -714,7 +714,7 @@
         <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5334600001637005</v>
+        <v>0.7323896279423926</v>
       </c>
       <c r="G12" t="n">
         <v>0.4</v>
@@ -742,7 +742,7 @@
         <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2518858811577006</v>
+        <v>0.2709451127444192</v>
       </c>
       <c r="G13" t="n">
         <v>0.4</v>
@@ -770,7 +770,7 @@
         <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3960054044151488</v>
+        <v>0.5502807980162426</v>
       </c>
       <c r="G14" t="n">
         <v>0.4</v>
@@ -798,7 +798,7 @@
         <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7531800643086765</v>
+        <v>0.2122062463694306</v>
       </c>
       <c r="G15" t="n">
         <v>0.4</v>
@@ -826,7 +826,7 @@
         <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3675091768917822</v>
+        <v>0.3163477491930681</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -854,7 +854,7 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4557358063725562</v>
+        <v>0.4722696479725565</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
@@ -882,7 +882,7 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4281721922001981</v>
+        <v>0.2038178560389097</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>

--- a/CollegeCalculator/Colleges.xlsx
+++ b/CollegeCalculator/Colleges.xlsx
@@ -356,10 +356,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -434,7 +434,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8812862279980086</v>
+        <v>0.6633803061988862</v>
       </c>
       <c r="G2" t="n">
         <v>0.4</v>
@@ -462,7 +462,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4743370707846513</v>
+        <v>0.2022782110874242</v>
       </c>
       <c r="G3" t="n">
         <v>0.4</v>
@@ -490,7 +490,7 @@
         <v>0.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4517701776861537</v>
+        <v>0.2790669748448999</v>
       </c>
       <c r="G4" t="n">
         <v>0.4</v>
@@ -518,7 +518,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2321022266257649</v>
+        <v>0.3233962865100242</v>
       </c>
       <c r="G5" t="n">
         <v>0.4</v>
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4344339274317854</v>
+        <v>0.205019121630646</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -574,7 +574,7 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7228114050918752</v>
+        <v>0.2093583166564784</v>
       </c>
       <c r="G7" t="n">
         <v>0.4</v>
@@ -602,7 +602,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9334766371160107</v>
+        <v>0.3006810824727235</v>
       </c>
       <c r="G8" t="n">
         <v>0.4</v>
@@ -630,7 +630,7 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2255057075658554</v>
+        <v>0.2492567561491769</v>
       </c>
       <c r="G9" t="n">
         <v>0.4</v>
@@ -658,7 +658,7 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2024938617963423</v>
+        <v>0.4599336551897654</v>
       </c>
       <c r="G10" t="n">
         <v>0.4</v>
@@ -686,7 +686,7 @@
         <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.419356999035029</v>
+        <v>0.9892742006822726</v>
       </c>
       <c r="G11" t="n">
         <v>0.4</v>
@@ -714,7 +714,7 @@
         <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7323896279423926</v>
+        <v>0.4146992927231091</v>
       </c>
       <c r="G12" t="n">
         <v>0.4</v>
@@ -742,7 +742,7 @@
         <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2709451127444192</v>
+        <v>0.2640978051033716</v>
       </c>
       <c r="G13" t="n">
         <v>0.4</v>
@@ -770,7 +770,7 @@
         <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5502807980162426</v>
+        <v>0.2446216341478168</v>
       </c>
       <c r="G14" t="n">
         <v>0.4</v>
@@ -798,7 +798,7 @@
         <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2122062463694306</v>
+        <v>0.2687435204112956</v>
       </c>
       <c r="G15" t="n">
         <v>0.4</v>
@@ -826,7 +826,7 @@
         <v>0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3163477491930681</v>
+        <v>0.6111048726416421</v>
       </c>
       <c r="G16" t="n">
         <v>0.4</v>
@@ -854,7 +854,7 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4722696479725565</v>
+        <v>0.4063854921017621</v>
       </c>
       <c r="G17" t="n">
         <v>0.4</v>
@@ -882,12 +882,40 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2038178560389097</v>
+        <v>0.240435938102969</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6266981172525106</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.45</v>
       </c>
     </row>
